--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H2">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I2">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J2">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>41.4148056366349</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N2">
-        <v>41.4148056366349</v>
+        <v>0.353392</v>
       </c>
       <c r="O2">
-        <v>0.4218918535179724</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P2">
-        <v>0.4218918535179724</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q2">
-        <v>284.739415500178</v>
+        <v>0.1099172021884444</v>
       </c>
       <c r="R2">
-        <v>284.739415500178</v>
+        <v>0.989254819696</v>
       </c>
       <c r="S2">
-        <v>0.1398328863505496</v>
+        <v>2.082830054101911E-05</v>
       </c>
       <c r="T2">
-        <v>0.1398328863505496</v>
+        <v>2.097434037911446E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H3">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I3">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J3">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>56.7497009574007</v>
+        <v>0.020824</v>
       </c>
       <c r="N3">
-        <v>56.7497009574007</v>
+        <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.5781081464820276</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P3">
-        <v>0.5781081464820276</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q3">
-        <v>390.1714962082611</v>
+        <v>0.01943096463733333</v>
       </c>
       <c r="R3">
-        <v>390.1714962082611</v>
+        <v>0.174878681736</v>
       </c>
       <c r="S3">
-        <v>0.1916096034357405</v>
+        <v>3.681989381192969E-06</v>
       </c>
       <c r="T3">
-        <v>0.1916096034357405</v>
+        <v>3.707806040216074E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.846178422799589</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H4">
-        <v>8.846178422799589</v>
+        <v>2.799313</v>
       </c>
       <c r="I4">
-        <v>0.4264537283272617</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J4">
-        <v>0.4264537283272617</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.4148056366349</v>
+        <v>54.104803</v>
       </c>
       <c r="N4">
-        <v>41.4148056366349</v>
+        <v>162.314409</v>
       </c>
       <c r="O4">
-        <v>0.4218918535179724</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P4">
-        <v>0.4218918535179724</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q4">
-        <v>366.3627600072385</v>
+        <v>50.48542613344634</v>
       </c>
       <c r="R4">
-        <v>366.3627600072385</v>
+        <v>454.3688352010171</v>
       </c>
       <c r="S4">
-        <v>0.1799173538836383</v>
+        <v>0.00956652468870234</v>
       </c>
       <c r="T4">
-        <v>0.1799173538836383</v>
+        <v>0.009633601391092046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>8.846178422799589</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H5">
-        <v>8.846178422799589</v>
+        <v>2.799313</v>
       </c>
       <c r="I5">
-        <v>0.4264537283272617</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J5">
-        <v>0.4264537283272617</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.7497009574007</v>
+        <v>58.93420533333333</v>
       </c>
       <c r="N5">
-        <v>56.7497009574007</v>
+        <v>176.802616</v>
       </c>
       <c r="O5">
-        <v>0.5781081464820276</v>
+        <v>0.5200319658449</v>
       </c>
       <c r="P5">
-        <v>0.5781081464820276</v>
+        <v>0.5202621374970865</v>
       </c>
       <c r="Q5">
-        <v>502.0179801096872</v>
+        <v>54.99176237808978</v>
       </c>
       <c r="R5">
-        <v>502.0179801096872</v>
+        <v>494.925861402808</v>
       </c>
       <c r="S5">
-        <v>0.2465363744436234</v>
+        <v>0.01042043402931134</v>
       </c>
       <c r="T5">
-        <v>0.2465363744436234</v>
+        <v>0.01049349800760025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.17172141548251</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H6">
-        <v>4.17172141548251</v>
+        <v>2.799313</v>
       </c>
       <c r="I6">
-        <v>0.2011090061884797</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J6">
-        <v>0.2011090061884797</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>41.4148056366349</v>
+        <v>0.150414</v>
       </c>
       <c r="N6">
-        <v>41.4148056366349</v>
+        <v>0.300828</v>
       </c>
       <c r="O6">
-        <v>0.4218918535179724</v>
+        <v>0.001327244300117055</v>
       </c>
       <c r="P6">
-        <v>0.4218918535179724</v>
+        <v>0.0008852211683280384</v>
       </c>
       <c r="Q6">
-        <v>172.7710315923956</v>
+        <v>0.140351955194</v>
       </c>
       <c r="R6">
-        <v>172.7710315923956</v>
+        <v>0.842111731164</v>
       </c>
       <c r="S6">
-        <v>0.08484625138001509</v>
+        <v>2.65954067798098E-05</v>
       </c>
       <c r="T6">
-        <v>0.08484625138001509</v>
+        <v>1.785458886326868E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.17172141548251</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
-        <v>4.17172141548251</v>
+        <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.2011090061884797</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J7">
-        <v>0.2011090061884797</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>56.7497009574007</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N7">
-        <v>56.7497009574007</v>
+        <v>0.353392</v>
       </c>
       <c r="O7">
-        <v>0.5781081464820276</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P7">
-        <v>0.5781081464820276</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q7">
-        <v>236.7439428062168</v>
+        <v>0.879501866256</v>
       </c>
       <c r="R7">
-        <v>236.7439428062168</v>
+        <v>7.915516796304001</v>
       </c>
       <c r="S7">
-        <v>0.1162627548084646</v>
+        <v>0.0001666575279578302</v>
       </c>
       <c r="T7">
-        <v>0.1162627548084646</v>
+        <v>0.0001678260648892232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.85037854317592</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H8">
-        <v>0.85037854317592</v>
+        <v>22.398687</v>
       </c>
       <c r="I8">
-        <v>0.04099477569796833</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J8">
-        <v>0.04099477569796833</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>41.4148056366349</v>
+        <v>0.020824</v>
       </c>
       <c r="N8">
-        <v>41.4148056366349</v>
+        <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.4218918535179724</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P8">
-        <v>0.4218918535179724</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q8">
-        <v>35.21826208319547</v>
+        <v>0.155476752696</v>
       </c>
       <c r="R8">
-        <v>35.21826208319547</v>
+        <v>1.399290774264</v>
       </c>
       <c r="S8">
-        <v>0.01729536190376939</v>
+        <v>2.946141702862988E-05</v>
       </c>
       <c r="T8">
-        <v>0.01729536190376939</v>
+        <v>2.966798887852458E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.85037854317592</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H9">
-        <v>0.85037854317592</v>
+        <v>22.398687</v>
       </c>
       <c r="I9">
-        <v>0.04099477569796833</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J9">
-        <v>0.04099477569796833</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.7497009574007</v>
+        <v>54.104803</v>
       </c>
       <c r="N9">
-        <v>56.7497009574007</v>
+        <v>162.314409</v>
       </c>
       <c r="O9">
-        <v>0.5781081464820276</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P9">
-        <v>0.5781081464820276</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q9">
-        <v>48.25872802582352</v>
+        <v>403.9588491978871</v>
       </c>
       <c r="R9">
-        <v>48.25872802582352</v>
+        <v>3635.629642780984</v>
       </c>
       <c r="S9">
-        <v>0.02369941379419894</v>
+        <v>0.07654649272161282</v>
       </c>
       <c r="T9">
-        <v>0.02369941379419894</v>
+        <v>0.0770832065731254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H10">
+        <v>22.398687</v>
+      </c>
+      <c r="I10">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J10">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N10">
+        <v>176.802616</v>
+      </c>
+      <c r="O10">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P10">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q10">
+        <v>440.0162729516881</v>
+      </c>
+      <c r="R10">
+        <v>3960.146456565192</v>
+      </c>
+      <c r="S10">
+        <v>0.08337904343912009</v>
+      </c>
+      <c r="T10">
+        <v>0.08396366444458399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H11">
+        <v>22.398687</v>
+      </c>
+      <c r="I11">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J11">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.150414</v>
+      </c>
+      <c r="N11">
+        <v>0.300828</v>
+      </c>
+      <c r="O11">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P11">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q11">
+        <v>1.123025368806</v>
+      </c>
+      <c r="R11">
+        <v>6.738152212836001</v>
+      </c>
+      <c r="S11">
+        <v>0.0002128029956273692</v>
+      </c>
+      <c r="T11">
+        <v>0.0001428633909327185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H12">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I12">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J12">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.353392</v>
+      </c>
+      <c r="O12">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P12">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q12">
+        <v>3.425523050929777</v>
+      </c>
+      <c r="R12">
+        <v>30.829707458368</v>
+      </c>
+      <c r="S12">
+        <v>0.0006491051645640856</v>
+      </c>
+      <c r="T12">
+        <v>0.0006536564342633637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H13">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I13">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J13">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020824</v>
+      </c>
+      <c r="N13">
+        <v>0.062472</v>
+      </c>
+      <c r="O13">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P13">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q13">
+        <v>0.6055577829653332</v>
+      </c>
+      <c r="R13">
+        <v>5.450020046688</v>
+      </c>
+      <c r="S13">
+        <v>0.0001147476395635656</v>
+      </c>
+      <c r="T13">
+        <v>0.0001155522048074118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H14">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I14">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J14">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.104803</v>
+      </c>
+      <c r="N14">
+        <v>162.314409</v>
+      </c>
+      <c r="O14">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P14">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q14">
+        <v>1573.356922419137</v>
+      </c>
+      <c r="R14">
+        <v>14160.21230177224</v>
+      </c>
+      <c r="S14">
+        <v>0.2981366900356185</v>
+      </c>
+      <c r="T14">
+        <v>0.3002271070553529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H15">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I15">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J15">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N15">
+        <v>176.802616</v>
+      </c>
+      <c r="O15">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P15">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q15">
+        <v>1713.794982831207</v>
+      </c>
+      <c r="R15">
+        <v>15424.15484548086</v>
+      </c>
+      <c r="S15">
+        <v>0.3247484129636235</v>
+      </c>
+      <c r="T15">
+        <v>0.3270254209008545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H16">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I16">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J16">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.150414</v>
+      </c>
+      <c r="N16">
+        <v>0.300828</v>
+      </c>
+      <c r="O16">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P16">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q16">
+        <v>4.374009237751999</v>
+      </c>
+      <c r="R16">
+        <v>26.24405542651199</v>
+      </c>
+      <c r="S16">
+        <v>0.0008288345878464344</v>
+      </c>
+      <c r="T16">
+        <v>0.0005564306996383031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H17">
+        <v>24.528474</v>
+      </c>
+      <c r="I17">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J17">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.353392</v>
+      </c>
+      <c r="O17">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P17">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q17">
+        <v>0.963129609312</v>
+      </c>
+      <c r="R17">
+        <v>8.668166483808001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001825042173863991</v>
+      </c>
+      <c r="T17">
+        <v>0.0001837838650612701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H18">
+        <v>24.528474</v>
+      </c>
+      <c r="I18">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J18">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.020824</v>
+      </c>
+      <c r="N18">
+        <v>0.062472</v>
+      </c>
+      <c r="O18">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P18">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q18">
+        <v>0.170260314192</v>
+      </c>
+      <c r="R18">
+        <v>1.532342827728</v>
+      </c>
+      <c r="S18">
+        <v>3.226276618758524E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.248897999419248E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H19">
+        <v>24.528474</v>
+      </c>
+      <c r="I19">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J19">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.104803</v>
+      </c>
+      <c r="N19">
+        <v>162.314409</v>
+      </c>
+      <c r="O19">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P19">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q19">
+        <v>442.3694178868741</v>
+      </c>
+      <c r="R19">
+        <v>3981.324760981867</v>
+      </c>
+      <c r="S19">
+        <v>0.0838249427974626</v>
+      </c>
+      <c r="T19">
+        <v>0.08441269027356538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H20">
+        <v>24.528474</v>
+      </c>
+      <c r="I20">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J20">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N20">
+        <v>176.802616</v>
+      </c>
+      <c r="O20">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P20">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q20">
+        <v>481.8553744097761</v>
+      </c>
+      <c r="R20">
+        <v>4336.698369687984</v>
+      </c>
+      <c r="S20">
+        <v>0.09130716899349177</v>
+      </c>
+      <c r="T20">
+        <v>0.09194737889206196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.528474</v>
+      </c>
+      <c r="I21">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J21">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.150414</v>
+      </c>
+      <c r="N21">
+        <v>0.300828</v>
+      </c>
+      <c r="O21">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P21">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q21">
+        <v>1.229808629412</v>
+      </c>
+      <c r="R21">
+        <v>7.378851776472001</v>
+      </c>
+      <c r="S21">
+        <v>0.0002330374430147641</v>
+      </c>
+      <c r="T21">
+        <v>0.000156447606506802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9112975</v>
+      </c>
+      <c r="H22">
+        <v>1.822595</v>
+      </c>
+      <c r="I22">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J22">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.353392</v>
+      </c>
+      <c r="O22">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P22">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q22">
+        <v>0.1073484153733333</v>
+      </c>
+      <c r="R22">
+        <v>0.6440904922399999</v>
+      </c>
+      <c r="S22">
+        <v>2.034153902648188E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.365611058973117E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9112975</v>
+      </c>
+      <c r="H23">
+        <v>1.822595</v>
+      </c>
+      <c r="I23">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J23">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.020824</v>
+      </c>
+      <c r="N23">
+        <v>0.062472</v>
+      </c>
+      <c r="O23">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P23">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q23">
+        <v>0.01897685914</v>
+      </c>
+      <c r="R23">
+        <v>0.11386115484</v>
+      </c>
+      <c r="S23">
+        <v>3.595940559102571E-06</v>
+      </c>
+      <c r="T23">
+        <v>2.414102585122712E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9112975</v>
+      </c>
+      <c r="H24">
+        <v>1.822595</v>
+      </c>
+      <c r="I24">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J24">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.104803</v>
+      </c>
+      <c r="N24">
+        <v>162.314409</v>
+      </c>
+      <c r="O24">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P24">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q24">
+        <v>49.3055717118925</v>
+      </c>
+      <c r="R24">
+        <v>295.833430271355</v>
+      </c>
+      <c r="S24">
+        <v>0.009342953109390824</v>
+      </c>
+      <c r="T24">
+        <v>0.00627230814396154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9112975</v>
+      </c>
+      <c r="H25">
+        <v>1.822595</v>
+      </c>
+      <c r="I25">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J25">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N25">
+        <v>176.802616</v>
+      </c>
+      <c r="O25">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P25">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q25">
+        <v>53.70659398475333</v>
+      </c>
+      <c r="R25">
+        <v>322.23956390852</v>
+      </c>
+      <c r="S25">
+        <v>0.01017690641935327</v>
+      </c>
+      <c r="T25">
+        <v>0.006832175251985821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9112975</v>
+      </c>
+      <c r="H26">
+        <v>1.822595</v>
+      </c>
+      <c r="I26">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J26">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.150414</v>
+      </c>
+      <c r="N26">
+        <v>0.300828</v>
+      </c>
+      <c r="O26">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P26">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q26">
+        <v>0.137071902165</v>
+      </c>
+      <c r="R26">
+        <v>0.5482876086599999</v>
+      </c>
+      <c r="S26">
+        <v>2.597386684867721E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.162488238694608E-05</v>
       </c>
     </row>
   </sheetData>
